--- a/Misc/datat.xlsx
+++ b/Misc/datat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ghost\temp\Bong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Tietokannat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
   <si>
     <t>Henkilo</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Esittäjä</t>
   </si>
   <si>
-    <t xml:space="preserve">insert into esittaja (nimi, cd_avain, maa_avain, vuosi_avain) values( </t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -230,15 +227,9 @@
     <t xml:space="preserve">insert into genre (nimi) values( </t>
   </si>
   <si>
-    <t>Pop</t>
-  </si>
-  <si>
     <t>yhtio_avain</t>
   </si>
   <si>
-    <t xml:space="preserve">insert into cd (nimi, esittaja_avain, yhtio_avain, vuosi_avain) values( </t>
-  </si>
-  <si>
     <t>Levy-yhtiö</t>
   </si>
   <si>
@@ -267,6 +258,36 @@
   </si>
   <si>
     <t>kesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into esittaja (nimi, maa_avain, vuosi_avain) values( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into cd (nimi, yhtio_avain, vuosi_avain) values( </t>
+  </si>
+  <si>
+    <t>CD_Esittaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into cd_esittaja (cd_avain, esittaja_avain) values( </t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Epic Records</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>The Final Countdown</t>
+  </si>
+  <si>
+    <t>Hard Rock</t>
   </si>
 </sst>
 </file>
@@ -1000,169 +1021,155 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" customWidth="1"/>
     <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="180.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2">
+        <v>1986</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"'"&amp;B2&amp;"', "</f>
+        <v xml:space="preserve">'The Final Countdown', </v>
+      </c>
       <c r="F2" t="str">
-        <f>"'"&amp;B2&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; C2 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from yhtio where nimi = 'Epic Records'), </v>
       </c>
       <c r="G2" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; C2 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D2 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1986')</v>
       </c>
       <c r="H2" t="str">
-        <f xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; D2 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
-      </c>
-      <c r="I2" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E2 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J2" t="str">
-        <f>$F$1 &amp; F2 &amp; G2 &amp; H2 &amp; I2 &amp; ");"</f>
-        <v>insert into cd (nimi, esittaja_avain, yhtio_avain, vuosi_avain) values( '', (select avain from esittaja where nimi = ''), (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>$E$1 &amp; E2 &amp; F2 &amp; G2 &amp; ");"</f>
+        <v>insert into cd (nimi, yhtio_avain, vuosi_avain) values( 'The Final Countdown', (select avain from yhtio where nimi = 'Epic Records'), (select avain from vuosi where vuosi = '1986'));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="E3" t="str">
+        <f>"'"&amp;B3&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F6" si="0">"'"&amp;B3&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; C3 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G6" si="1" xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; C3 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D3 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H6" si="2" xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; D3 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I6" si="3" xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E3 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J6" si="4">$F$1 &amp; F3 &amp; G3 &amp; H3 &amp; I3 &amp; ");"</f>
-        <v>insert into cd (nimi, esittaja_avain, yhtio_avain, vuosi_avain) values( '', (select avain from esittaja where nimi = ''), (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H6" si="0">$E$1 &amp; E3 &amp; F3 &amp; G3 &amp; ");"</f>
+        <v>insert into cd (nimi, yhtio_avain, vuosi_avain) values( '', (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="3"/>
+      <c r="E4" t="str">
+        <f>"'"&amp;B4&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F4" t="str">
+        <f xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; C4 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
+      </c>
+      <c r="G4" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D4 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">'', </v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into cd (nimi, esittaja_avain, yhtio_avain, vuosi_avain) values( '', (select avain from esittaja where nimi = ''), (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>insert into cd (nimi, yhtio_avain, vuosi_avain) values( '', (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="E5" t="str">
+        <f>"'"&amp;B5&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F5" t="str">
+        <f xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; C5 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
+      </c>
+      <c r="G5" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D5 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">'', </v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="3"/>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into cd (nimi, esittaja_avain, yhtio_avain, vuosi_avain) values( '', (select avain from esittaja where nimi = ''), (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>insert into cd (nimi, yhtio_avain, vuosi_avain) values( '', (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="E6" t="str">
+        <f>"'"&amp;B6&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F6" t="str">
+        <f xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; C6 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
+      </c>
+      <c r="G6" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D6 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">'', </v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="3"/>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into cd (nimi, esittaja_avain, yhtio_avain, vuosi_avain) values( '', (select avain from esittaja where nimi = ''), (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>insert into cd (nimi, yhtio_avain, vuosi_avain) values( '', (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>57</v>
@@ -1171,22 +1178,22 @@
         <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="str">
         <f>"'"&amp;B11&amp;"', "</f>
@@ -1201,36 +1208,41 @@
         <v>insert into maa (isoalpha2, nimi) values( 'SE', 'Sweden');</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12:D15" si="5">"'"&amp;B12&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" ref="D12:D15" si="1">"'"&amp;B12&amp;"', "</f>
+        <v xml:space="preserve">'US', </v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" ref="E12:E15" si="6">"'"&amp;C12&amp;"'"</f>
-        <v>''</v>
+        <f t="shared" ref="E12:E15" si="2">"'"&amp;C12&amp;"'"</f>
+        <v>'United States of America'</v>
       </c>
       <c r="F12" t="str">
         <f>$D$10 &amp; D12 &amp; E12 &amp; ");"</f>
-        <v>insert into maa (isoalpha2, nimi) values( '', '');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>insert into maa (isoalpha2, nimi) values( 'US', 'United States of America');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13"/>
       <c r="D13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>''</v>
       </c>
       <c r="F13" t="str">
@@ -1239,17 +1251,17 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="3"/>
       <c r="D14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>''</v>
       </c>
       <c r="F14" t="str">
@@ -1257,17 +1269,17 @@
         <v>insert into maa (isoalpha2, nimi) values( '', '');</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="3"/>
       <c r="D15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>''</v>
       </c>
       <c r="F15" t="str">
@@ -1281,46 +1293,47 @@
         <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>1979</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"'"&amp;B18&amp;"', "</f>
+        <v xml:space="preserve">'Europe', </v>
+      </c>
       <c r="F18" t="str">
-        <f>"'"&amp;B18&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C18 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from maa where nimi = 'Sweden'), </v>
       </c>
       <c r="G18" t="str">
-        <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; C18 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from cd where nimi = ''), </v>
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D18 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1979')</v>
       </c>
       <c r="H18" t="str">
-        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; D18 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
-      </c>
-      <c r="I18" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E18 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J18" t="str">
-        <f>$F$17 &amp; F18 &amp; G18 &amp; H18 &amp; I18 &amp; ");"</f>
-        <v>insert into esittaja (nimi, cd_avain, maa_avain, vuosi_avain) values( '', (select avain from cd where nimi = ''), (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <f>$E$17 &amp; E18 &amp; F18 &amp; G18 &amp; ");"</f>
+        <v>insert into esittaja (nimi, maa_avain, vuosi_avain) values( 'Europe', (select avain from maa where nimi = 'Sweden'), (select avain from vuosi where vuosi = '1979'));</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1328,25 +1341,21 @@
         <v>58</v>
       </c>
       <c r="B19" s="3"/>
+      <c r="E19" t="str">
+        <f>"'"&amp;B19&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19:F22" si="7">"'"&amp;B19&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C19 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G22" si="8" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; C19 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from cd where nimi = ''), </v>
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D19 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="H19" t="str">
-        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; D19 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" ref="I19:I22" si="9" xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E19 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" ref="J19:J22" si="10">$F$17 &amp; F19 &amp; G19 &amp; H19 &amp; I19 &amp; ");"</f>
-        <v>insert into esittaja (nimi, cd_avain, maa_avain, vuosi_avain) values( '', (select avain from cd where nimi = ''), (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <f t="shared" ref="H19:H22" si="3">$E$17 &amp; E19 &amp; F19 &amp; G19 &amp; ");"</f>
+        <v>insert into esittaja (nimi, maa_avain, vuosi_avain) values( '', (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,25 +1363,21 @@
         <v>58</v>
       </c>
       <c r="B20" s="3"/>
+      <c r="E20" t="str">
+        <f>"'"&amp;B20&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F20" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">'', </v>
+        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C20 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(select avain from cd where nimi = ''), </v>
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D20 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="H20" t="str">
-        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; D20 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="9"/>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into esittaja (nimi, cd_avain, maa_avain, vuosi_avain) values( '', (select avain from cd where nimi = ''), (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <f t="shared" si="3"/>
+        <v>insert into esittaja (nimi, maa_avain, vuosi_avain) values( '', (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1380,25 +1385,21 @@
         <v>58</v>
       </c>
       <c r="B21" s="3"/>
+      <c r="E21" t="str">
+        <f>"'"&amp;B21&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F21" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">'', </v>
+        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C21 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(select avain from cd where nimi = ''), </v>
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D21 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="H21" t="str">
-        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; D21 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="9"/>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into esittaja (nimi, cd_avain, maa_avain, vuosi_avain) values( '', (select avain from cd where nimi = ''), (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <f t="shared" si="3"/>
+        <v>insert into esittaja (nimi, maa_avain, vuosi_avain) values( '', (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1406,25 +1407,21 @@
         <v>58</v>
       </c>
       <c r="B22" s="3"/>
+      <c r="E22" t="str">
+        <f>"'"&amp;B22&amp;"', "</f>
+        <v xml:space="preserve">'', </v>
+      </c>
       <c r="F22" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">'', </v>
+        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C22 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(select avain from cd where nimi = ''), </v>
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D22 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="H22" t="str">
-        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; D22 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="9"/>
-        <v>(select avain from vuosi where vuosi = '')</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into esittaja (nimi, cd_avain, maa_avain, vuosi_avain) values( '', (select avain from cd where nimi = ''), (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <f t="shared" si="3"/>
+        <v>insert into esittaja (nimi, maa_avain, vuosi_avain) values( '', (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,16 +1430,16 @@
         <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1451,127 +1448,138 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>311</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>1986</v>
+      </c>
       <c r="F25" t="str">
         <f>"'"&amp;B25&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <v xml:space="preserve">'The Final Countdown', </v>
       </c>
       <c r="G25" t="str">
         <f>"'"&amp;C25&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <v xml:space="preserve">'311', </v>
       </c>
       <c r="H25" t="str">
         <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D25 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Europe'), </v>
       </c>
       <c r="I25" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E25 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1986')</v>
       </c>
       <c r="J25" t="str">
         <f>$F$24&amp; F25 &amp; G25 &amp; H25 &amp; I25 &amp; ");"</f>
-        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain) values( 'The Final Countdown', '311', (select avain from esittaja where nimi = 'Europe'), (select avain from vuosi where vuosi = '1986'));</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3"/>
       <c r="F26" t="str">
-        <f t="shared" ref="F26:F29" si="11">"'"&amp;B26&amp;"', "</f>
+        <f>"'"&amp;B26&amp;"', "</f>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" ref="G26:G29" si="12">"'"&amp;C26&amp;"', "</f>
+        <f t="shared" ref="G26:G29" si="4">"'"&amp;C26&amp;"', "</f>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ref="H26:H29" si="13" xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D26 &amp; "'), "</f>
+        <f t="shared" ref="H26:H29" si="5" xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D26 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" ref="I26:I29" si="14" xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E26 &amp; "')"</f>
+        <f t="shared" ref="I26:I29" si="6" xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E26 &amp; "')"</f>
         <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ref="J26:J28" si="15">$F$24&amp; F26 &amp; G26 &amp; H26 &amp; I26 &amp; ");"</f>
+        <f t="shared" ref="J26:J28" si="7">$F$24&amp; F26 &amp; G26 &amp; H26 &amp; I26 &amp; ");"</f>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3"/>
       <c r="F27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F26:F29" si="8">"'"&amp;B27&amp;"', "</f>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3"/>
       <c r="F28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="3"/>
       <c r="F29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">'', </v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>(select avain from vuosi where vuosi = '')</v>
       </c>
       <c r="J29" t="str">
@@ -1585,7 +1593,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1594,18 +1602,18 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C32" t="str">
-        <f>"'"&amp;B32&amp;"',"</f>
-        <v>'Pop',</v>
+        <f>"'"&amp;B32&amp;"'"</f>
+        <v>'Hard Rock'</v>
       </c>
       <c r="D32" t="str">
         <f>$C$31&amp;C32&amp; ");"</f>
-        <v>insert into genre (nimi) values( 'Pop',);</v>
+        <v>insert into genre (nimi) values( 'Hard Rock');</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1620,7 +1628,7 @@
         <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1629,24 +1637,32 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35">
+        <v>1953</v>
+      </c>
       <c r="E35" t="str">
         <f>"'"&amp;B35&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <v xml:space="preserve">'Epic Records', </v>
       </c>
       <c r="F35" t="str">
         <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C35 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from maa where nimi = 'United States of America'), </v>
       </c>
       <c r="G35" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D35 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1953')</v>
       </c>
       <c r="H35" t="str">
         <f>$E$34&amp; E35 &amp; F35 &amp; G35 &amp; ");"</f>
-        <v>insert into yhtio (nimi, maa_avain, vuosi_avain) values( '', (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <v>insert into yhtio (nimi, maa_avain, vuosi_avain) values( 'Epic Records', (select avain from maa where nimi = 'United States of America'), (select avain from vuosi where vuosi = '1953'));</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,10 +1671,10 @@
         <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1667,31 +1683,39 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B38" t="str">
+        <f>""&amp;B2&amp;""</f>
+        <v>The Final Countdown</v>
+      </c>
+      <c r="C38" t="str">
+        <f>""&amp;B25&amp;""</f>
+        <v>The Final Countdown</v>
       </c>
       <c r="D38" t="str">
         <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B38 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from cd where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from cd where nimi = 'The Final Countdown'), </v>
       </c>
       <c r="E38" t="str">
         <f xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C38 &amp; "')"</f>
-        <v>(select avain from kappale where nimi = '')</v>
+        <v>(select avain from kappale where nimi = 'The Final Countdown')</v>
       </c>
       <c r="F38" t="str">
         <f>$D$37&amp; D38 &amp; E38  &amp; ");"</f>
-        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = ''), (select avain from kappale where nimi = ''));</v>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'The Final Countdown'), (select avain from kappale where nimi = 'The Final Countdown'));</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1700,19 +1724,68 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f>""&amp;B25&amp;""</f>
+        <v>The Final Countdown</v>
+      </c>
+      <c r="C41" t="str">
+        <f>""&amp;B32&amp;""</f>
+        <v>Hard Rock</v>
       </c>
       <c r="D41" t="str">
         <f xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B41 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from kappale where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'The Final Countdown'), </v>
       </c>
       <c r="E41" t="str">
         <f xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C41 &amp; "')"</f>
-        <v>(select avain from genre where nimi = '')</v>
+        <v>(select avain from genre where nimi = 'Hard Rock')</v>
       </c>
       <c r="F41" t="str">
         <f>$D$40&amp; D41 &amp; E41 &amp; ");"</f>
-        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = ''), (select avain from genre where nimi = ''));</v>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'The Final Countdown'), (select avain from genre where nimi = 'Hard Rock'));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="str">
+        <f>""&amp;B2&amp;""</f>
+        <v>The Final Countdown</v>
+      </c>
+      <c r="C44" t="str">
+        <f>""&amp;B18&amp;""</f>
+        <v>Europe</v>
+      </c>
+      <c r="D44" t="str">
+        <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B44 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from cd where nimi = 'The Final Countdown'), </v>
+      </c>
+      <c r="E44" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; C44 &amp; "')"</f>
+        <v>(select avain from esittaja where nimi = 'Europe')</v>
+      </c>
+      <c r="F44" t="str">
+        <f>$D$43&amp; D44 &amp; E44 &amp; ");"</f>
+        <v>insert into cd_esittaja (cd_avain, esittaja_avain) values( (select avain from cd where nimi = 'The Final Countdown'), (select avain from esittaja where nimi = 'Europe'));</v>
       </c>
     </row>
   </sheetData>
